--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150BFE55-DE45-47BB-8800-661E5FEA4403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="105" windowWidth="21600" windowHeight="11385" xr2:uid="{A7CA6616-F386-4389-8C98-D15DB7E95F67}"/>
+    <workbookView xWindow="975" yWindow="105" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDatas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
   <si>
     <t>Id</t>
   </si>
@@ -45,30 +44,18 @@
     <t>땜장이</t>
   </si>
   <si>
-    <t>기계</t>
-  </si>
-  <si>
-    <t>전사</t>
-  </si>
-  <si>
     <t>고철거인</t>
   </si>
   <si>
     <t>자이로콥터</t>
   </si>
   <si>
-    <t>궁수</t>
-  </si>
-  <si>
     <t>수정 드래곤</t>
   </si>
   <si>
     <t>그린 드래곤</t>
   </si>
   <si>
-    <t>법사</t>
-  </si>
-  <si>
     <t>보라 드래곤</t>
   </si>
   <si>
@@ -78,9 +65,6 @@
     <t>둠</t>
   </si>
   <si>
-    <t>악마</t>
-  </si>
-  <si>
     <t>흑마법사</t>
   </si>
   <si>
@@ -90,24 +74,15 @@
     <t>퓨리온</t>
   </si>
   <si>
-    <t>야수</t>
-  </si>
-  <si>
     <t>스탬피드</t>
   </si>
   <si>
-    <t>도적</t>
-  </si>
-  <si>
     <t>켄타우로스</t>
   </si>
   <si>
     <t>해골 병사</t>
   </si>
   <si>
-    <t>언데드</t>
-  </si>
-  <si>
     <t>리치</t>
   </si>
   <si>
@@ -117,9 +92,6 @@
     <t>엘프 검사</t>
   </si>
   <si>
-    <t>엘프</t>
-  </si>
-  <si>
     <t>워록</t>
   </si>
   <si>
@@ -132,9 +104,6 @@
     <t>대지의 정령</t>
   </si>
   <si>
-    <t>정령</t>
-  </si>
-  <si>
     <t>정신의 정령</t>
   </si>
   <si>
@@ -145,9 +114,6 @@
   </si>
   <si>
     <t>도끼 전사</t>
-  </si>
-  <si>
-    <t>휴먼</t>
   </si>
   <si>
     <t>심판관</t>
@@ -278,12 +244,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>성기사</t>
-  </si>
-  <si>
-    <t>드래곤</t>
-  </si>
-  <si>
     <t>Images/Character/엘프 검사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -381,13 +341,77 @@
   </si>
   <si>
     <t>Images/Character/인간 도적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elf</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elemental</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Human</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paladin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wizard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Machine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -850,11 +874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6A44A-5798-4893-82F4-85C239DAC380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,20 +899,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -896,22 +920,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -922,19 +946,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -942,22 +966,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -965,22 +989,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -988,22 +1012,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1011,19 +1035,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1031,19 +1055,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1051,19 +1075,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1071,19 +1095,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1091,19 +1115,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1111,19 +1135,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1131,19 +1155,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1151,19 +1175,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1171,19 +1195,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1191,19 +1215,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1211,19 +1235,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1231,19 +1255,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1251,19 +1275,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1271,19 +1295,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1291,19 +1315,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1311,19 +1335,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1331,19 +1355,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1351,19 +1375,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C24" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1371,19 +1395,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1391,19 +1415,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1411,19 +1435,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1431,19 +1455,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1451,19 +1475,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1471,23 +1495,23 @@
         <v>28</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+  <sortState ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547F4168-3C33-45E5-9F30-E07AD84355EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="105" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDatas" sheetId="1" r:id="rId1"/>
@@ -18,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -264,10 +259,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Old Character/Character_14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Old Character/Character_15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -405,13 +396,17 @@
   </si>
   <si>
     <t>Archer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/엘프 인간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,7 +516,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -557,9 +552,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,11 +866,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,16 +915,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>40</v>
@@ -946,16 +938,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>41</v>
@@ -969,16 +961,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>42</v>
@@ -992,16 +984,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>43</v>
@@ -1015,16 +1007,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>44</v>
@@ -1038,10 +1030,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
@@ -1058,10 +1050,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
@@ -1078,16 +1070,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1098,16 +1090,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1118,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>36</v>
@@ -1138,16 +1130,16 @@
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1158,16 +1150,16 @@
         <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1178,16 +1170,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1198,16 +1190,16 @@
         <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>50</v>
+      <c r="F15" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1218,10 +1210,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
@@ -1238,16 +1230,16 @@
         <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1258,10 +1250,10 @@
         <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>34</v>
@@ -1278,16 +1270,16 @@
         <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1298,16 +1290,16 @@
         <v>20</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1318,16 +1310,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1338,16 +1330,16 @@
         <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1358,16 +1350,16 @@
         <v>26</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1378,16 +1370,16 @@
         <v>25</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1398,16 +1390,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1418,16 +1410,16 @@
         <v>27</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1438,10 +1430,10 @@
         <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>36</v>
@@ -1458,16 +1450,16 @@
         <v>29</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1478,10 +1470,10 @@
         <v>31</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>35</v>
@@ -1498,20 +1490,20 @@
         <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547F4168-3C33-45E5-9F30-E07AD84355EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BD6FE2-FAF5-4D8B-9058-E7A2069EBFA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t>Id</t>
   </si>
@@ -239,18 +239,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Character/엘프 검사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/인간 궁수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/인간 마법사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Old Character/Character_ BlackWizard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -315,26 +303,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Character/악마 전사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Old Character/Character_DevilKnight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Character/인간 전사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/인간 성기사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/인간 도적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Machine</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -399,7 +371,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Character/엘프 인간</t>
+    <t>Images/Character/Human/인간 궁수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/인간 마법사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Devil/악마 전사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/인간 성기사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Elf/엘프 전사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/인간 전사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/인간 도적</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +866,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -915,16 +911,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>40</v>
@@ -938,16 +934,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>41</v>
@@ -961,16 +957,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>42</v>
@@ -984,16 +980,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>43</v>
@@ -1007,16 +1003,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>44</v>
@@ -1030,16 +1026,16 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1050,16 +1046,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1070,16 +1066,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1090,16 +1086,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1110,16 +1106,16 @@
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1130,16 +1126,16 @@
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1150,16 +1146,16 @@
         <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1170,16 +1166,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1190,16 +1186,16 @@
         <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1210,16 +1206,16 @@
         <v>16</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1230,16 +1226,16 @@
         <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1250,16 +1246,16 @@
         <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1270,16 +1266,16 @@
         <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1290,16 +1286,16 @@
         <v>20</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1310,16 +1306,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1330,16 +1326,16 @@
         <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1350,16 +1346,16 @@
         <v>26</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1370,16 +1366,16 @@
         <v>25</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1390,16 +1386,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1410,16 +1406,16 @@
         <v>27</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1430,16 +1426,16 @@
         <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1450,16 +1446,16 @@
         <v>29</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1470,16 +1466,16 @@
         <v>31</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1490,16 +1486,16 @@
         <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BD6FE2-FAF5-4D8B-9058-E7A2069EBFA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6375E95-9AE7-49BD-A2F0-C99739BED9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CharacterDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="CharacterExcelDatas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
   <si>
     <t>Id</t>
   </si>
@@ -396,6 +396,45 @@
   </si>
   <si>
     <t>Images/Character/Human/인간 도적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimatorPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">#AnimatorPath: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애니메이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경로</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -863,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,10 +915,12 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -898,12 +939,14 @@
       <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -922,11 +965,12 @@
       <c r="F2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="3"/>
+      <c r="I2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -945,11 +989,12 @@
       <c r="F3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="3"/>
+      <c r="I3" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -968,11 +1013,12 @@
       <c r="F4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="3"/>
+      <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -991,11 +1037,12 @@
       <c r="F5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="3"/>
+      <c r="I5" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1014,11 +1061,12 @@
       <c r="F6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="3"/>
+      <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1037,8 +1085,12 @@
       <c r="F7" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
+      <c r="I7" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1057,8 +1109,9 @@
       <c r="F8" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1077,8 +1130,9 @@
       <c r="F9" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1097,8 +1151,9 @@
       <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1117,8 +1172,9 @@
       <c r="F11" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1137,8 +1193,9 @@
       <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1157,8 +1214,9 @@
       <c r="F13" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1177,8 +1235,9 @@
       <c r="F14" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -1197,8 +1256,9 @@
       <c r="F15" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -1217,8 +1277,9 @@
       <c r="F16" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1237,8 +1298,9 @@
       <c r="F17" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1257,8 +1319,9 @@
       <c r="F18" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1277,8 +1340,9 @@
       <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1297,8 +1361,9 @@
       <c r="F20" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1317,8 +1382,9 @@
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1337,8 +1403,9 @@
       <c r="F22" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -1357,8 +1424,9 @@
       <c r="F23" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1377,8 +1445,9 @@
       <c r="F24" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1397,8 +1466,9 @@
       <c r="F25" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -1417,8 +1487,9 @@
       <c r="F26" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -1437,8 +1508,9 @@
       <c r="F27" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -1457,8 +1529,9 @@
       <c r="F28" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -1477,8 +1550,9 @@
       <c r="F29" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -1497,6 +1571,7 @@
       <c r="F30" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="G30" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6375E95-9AE7-49BD-A2F0-C99739BED9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB104E61-44CF-4687-81BB-DFE468F34105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterExcelDatas" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
   <si>
     <t>Id</t>
   </si>
@@ -399,10 +399,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AnimatorPath</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">#AnimatorPath: </t>
     </r>
@@ -435,6 +431,14 @@
       </rPr>
       <t>경로</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuntimeAnimatorControllerPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/Elf/Elf Warrior</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -904,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -915,7 +919,7 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -940,7 +944,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>39</v>
@@ -1087,7 +1091,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="I7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1279,7 +1283,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1300,7 +1304,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1320,8 +1324,11 @@
         <v>82</v>
       </c>
       <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1342,7 +1349,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1363,7 +1370,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1384,7 +1391,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1405,7 +1412,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -1426,7 +1433,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1447,7 +1454,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1468,7 +1475,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -1489,7 +1496,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -1510,7 +1517,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -1531,7 +1538,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -1552,7 +1559,7 @@
       </c>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>28</v>
       </c>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB104E61-44CF-4687-81BB-DFE468F34105}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1920" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6840" yWindow="1920" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterExcelDatas" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
   <si>
     <t>Id</t>
   </si>
@@ -441,11 +440,23 @@
     <t>Controllers/Elf/Elf Warrior</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Images/Character/Elf/Elf Warrior/DefaultImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/Archer/DefaultImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/Human/Archer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,11 +916,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1294,7 @@
       </c>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1304,7 +1315,7 @@
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1321,14 +1332,13 @@
         <v>34</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1349,7 +1359,7 @@
       </c>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1370,7 +1380,7 @@
       </c>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1391,7 +1401,7 @@
       </c>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1412,7 +1422,7 @@
       </c>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -1433,7 +1443,7 @@
       </c>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1454,7 +1464,7 @@
       </c>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1475,7 +1485,7 @@
       </c>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -1496,7 +1506,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -1517,7 +1527,7 @@
       </c>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -1538,7 +1548,7 @@
       </c>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -1555,11 +1565,13 @@
         <v>35</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -1581,7 +1593,7 @@
       <c r="G30" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+  <sortState ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B499C3-7B48-4E6B-8AB1-A8EC1ADF1BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1920" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="3075" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterExcelDatas" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
   <si>
     <t>Id</t>
   </si>
@@ -452,11 +453,27 @@
     <t>Controllers/Human/Archer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Images/Character/Human/Wizard/DefaultImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/Human/Wizard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/Warrior/DefaultImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/Human/Warrior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -916,11 +933,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1502,9 +1519,11 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
@@ -1523,9 +1542,11 @@
         <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
@@ -1593,7 +1614,7 @@
       <c r="G30" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B499C3-7B48-4E6B-8AB1-A8EC1ADF1BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="2670" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="2670" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterExcelDatas" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -371,27 +370,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Character/Human/인간 궁수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/Human/인간 마법사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Character/Devil/악마 전사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Images/Character/Human/인간 성기사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/Elf/엘프 전사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/Human/인간 전사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -469,11 +452,31 @@
     <t>Controllers/Human/Warrior</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Images/Old Character/Character_FairyDragon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Old Character/Character_19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -933,11 +936,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -972,7 +975,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>39</v>
@@ -1115,11 +1118,11 @@
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G7" s="3"/>
       <c r="I7" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1139,7 +1142,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -1160,7 +1163,7 @@
         <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -1244,7 +1247,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1286,7 +1289,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -1349,10 +1352,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1477,7 +1480,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -1519,10 +1522,10 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1542,10 +1545,10 @@
         <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1565,7 +1568,7 @@
         <v>33</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -1586,10 +1589,10 @@
         <v>35</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1609,12 +1612,12 @@
         <v>36</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G30" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+  <sortState ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A6DA38-8323-4C88-AC45-66C4C5B3D4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="2670" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterExcelDatas" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
   <si>
     <t>Id</t>
   </si>
@@ -370,18 +371,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Character/Devil/악마 전사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/Human/인간 성기사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Character/Human/인간 도적</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">#AnimatorPath: </t>
     </r>
@@ -472,11 +461,35 @@
     <t>Images/Old Character/Character_19</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Images/Character/Human/Paladin/DefaultImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/Human/Paladin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/Thief/DefaultImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/Human/Thief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Devil/Warrior/DefaultImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/Devil/Warrior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -936,11 +949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -975,7 +988,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>39</v>
@@ -1118,11 +1131,11 @@
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G7" s="3"/>
       <c r="I7" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1142,7 +1155,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -1163,9 +1176,11 @@
         <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1247,7 +1262,7 @@
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1289,7 +1304,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -1352,10 +1367,10 @@
         <v>34</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1480,7 +1495,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -1522,10 +1537,10 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1545,10 +1560,10 @@
         <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1568,9 +1583,11 @@
         <v>33</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
@@ -1589,10 +1606,10 @@
         <v>35</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1612,12 +1629,14 @@
         <v>36</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A6DA38-8323-4C88-AC45-66C4C5B3D4D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterExcelDatas" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
   <si>
     <t>Id</t>
   </si>
@@ -414,10 +413,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Character/Elf/Elf Warrior/DefaultImage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Character/Human/Archer/DefaultImage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -483,13 +478,103 @@
   </si>
   <si>
     <t>Controllers/Devil/Warrior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Elf/Warrior/DefaultImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/Warrior/Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/Wizard/Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/Thief/Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/Archer/Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Human/Paladin/Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Elf/Warrior/Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Devil/Warrior/Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadImagePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># HeadImagePath : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경로</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -949,11 +1034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -963,8 +1048,8 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -988,6 +1073,9 @@
         <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -1013,7 +1101,7 @@
       <c r="F2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
         <v>40</v>
       </c>
@@ -1037,7 +1125,7 @@
       <c r="F3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
         <v>41</v>
       </c>
@@ -1061,7 +1149,7 @@
       <c r="F4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
@@ -1085,7 +1173,7 @@
       <c r="F5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
       <c r="I5" s="4" t="s">
         <v>43</v>
       </c>
@@ -1109,7 +1197,7 @@
       <c r="F6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
@@ -1131,11 +1219,11 @@
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1155,9 +1243,12 @@
         <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>88</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1176,10 +1267,13 @@
         <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1201,7 +1295,7 @@
       <c r="F10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -1222,7 +1316,7 @@
       <c r="F11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -1243,7 +1337,7 @@
       <c r="F12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -1262,9 +1356,9 @@
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
@@ -1285,7 +1379,7 @@
       <c r="F14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
@@ -1304,9 +1398,9 @@
         <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
@@ -1327,9 +1421,9 @@
       <c r="F16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1348,9 +1442,9 @@
       <c r="F17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -1367,13 +1461,16 @@
         <v>34</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -1392,9 +1489,9 @@
       <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -1413,9 +1510,9 @@
       <c r="F20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -1434,9 +1531,9 @@
       <c r="F21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>20</v>
       </c>
@@ -1455,9 +1552,9 @@
       <c r="F22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>21</v>
       </c>
@@ -1476,9 +1573,9 @@
       <c r="F23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -1495,11 +1592,11 @@
         <v>33</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>23</v>
       </c>
@@ -1518,9 +1615,9 @@
       <c r="F25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -1537,13 +1634,16 @@
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -1560,13 +1660,16 @@
         <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -1583,13 +1686,16 @@
         <v>33</v>
       </c>
       <c r="F28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -1606,13 +1712,16 @@
         <v>35</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -1629,14 +1738,17 @@
         <v>36</v>
       </c>
       <c r="F30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+  <sortState ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A86BED9-80DB-409A-A2CF-A406CF3E7067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterExcelDatas" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="114">
   <si>
     <t>Id</t>
   </si>
@@ -290,18 +291,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Old Character/Character_Dobi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Old Character/Character_WoodElf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Old Character/Character_Warlock</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Old Character/Character_DevilKnight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -409,10 +398,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Controllers/Elf/Elf Warrior</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Images/Character/Human/Archer/DefaultImage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -570,11 +555,51 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Controllers/Elf/Warrior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Elf/Thief/DefaultImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Elf/Thief/Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/Elf/Thief</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Elf/Wizard/DefaultImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Elf/Wizard/Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/Elf/Wizard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Elf/Archer/DefaultImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Character/Elf/Archer/Head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/Elf/Archer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1034,11 +1059,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1073,10 +1098,10 @@
         <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>39</v>
@@ -1090,10 +1115,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
@@ -1114,10 +1139,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>35</v>
@@ -1138,10 +1163,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -1162,10 +1187,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>34</v>
@@ -1186,10 +1211,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>34</v>
@@ -1210,20 +1235,20 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1234,20 +1259,20 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1258,22 +1283,22 @@
         <v>10</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1284,16 +1309,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -1305,10 +1330,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>36</v>
@@ -1326,10 +1351,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>35</v>
@@ -1347,16 +1372,16 @@
         <v>15</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -1368,10 +1393,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>34</v>
@@ -1389,16 +1414,16 @@
         <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H15" s="3"/>
     </row>
@@ -1410,10 +1435,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
@@ -1431,10 +1456,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>35</v>
@@ -1452,22 +1477,22 @@
         <v>19</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1478,18 +1503,23 @@
         <v>22</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
@@ -1499,18 +1529,23 @@
         <v>20</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
@@ -1520,18 +1555,23 @@
         <v>21</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
@@ -1541,10 +1581,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>35</v>
@@ -1562,10 +1602,10 @@
         <v>26</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>35</v>
@@ -1583,16 +1623,16 @@
         <v>25</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -1604,10 +1644,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>34</v>
@@ -1625,22 +1665,22 @@
         <v>27</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1651,22 +1691,22 @@
         <v>28</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1677,22 +1717,22 @@
         <v>29</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1703,22 +1743,22 @@
         <v>31</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1729,26 +1769,26 @@
         <v>30</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Character/CharacterDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Character\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A86BED9-80DB-409A-A2CF-A406CF3E7067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-216" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterExcelDatas" sheetId="1" r:id="rId1"/>
@@ -599,7 +598,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1059,26 +1058,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1107,9 +1106,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1131,9 +1130,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -1155,9 +1154,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -1179,9 +1178,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -1203,9 +1202,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -1227,9 +1226,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -1251,9 +1250,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -1275,9 +1274,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -1301,9 +1300,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>12</v>
@@ -1322,9 +1321,9 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
@@ -1343,9 +1342,9 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>14</v>
@@ -1364,9 +1363,9 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>15</v>
@@ -1385,9 +1384,9 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>13</v>
@@ -1406,9 +1405,9 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>17</v>
@@ -1427,9 +1426,9 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>16</v>
@@ -1448,9 +1447,9 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>18</v>
@@ -1469,9 +1468,9 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>19</v>
@@ -1495,9 +1494,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>22</v>
@@ -1521,9 +1520,9 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>20</v>
@@ -1547,9 +1546,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>21</v>
@@ -1573,9 +1572,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>23</v>
@@ -1594,9 +1593,9 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>26</v>
@@ -1615,9 +1614,9 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>25</v>
@@ -1636,9 +1635,9 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>24</v>
@@ -1657,9 +1656,9 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>27</v>
@@ -1683,9 +1682,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>28</v>
@@ -1709,9 +1708,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>29</v>
@@ -1735,9 +1734,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>31</v>
@@ -1761,9 +1760,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>30</v>
@@ -1788,7 +1787,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E30">
+  <sortState ref="A2:E30">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
